--- a/data/tehilim-data/110.xlsx
+++ b/data/tehilim-data/110.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>original</t>
   </si>
@@ -136,19 +136,19 @@
     <t>ג</t>
   </si>
   <si>
-    <t>עַמְּךָ</t>
+    <t>עַמְּךָ</t>
   </si>
   <si>
-    <t>Народ твой</t>
+    <t>народ твой</t>
   </si>
   <si>
     <t>נְדָבֹת</t>
   </si>
   <si>
-    <t>с усердием</t>
+    <t>добровольно вызовется</t>
   </si>
   <si>
-    <t>בְּיוֹם</t>
+    <t>בְּיוֹם</t>
   </si>
   <si>
     <t>в день</t>
@@ -265,13 +265,13 @@
     <t>מָחַץ</t>
   </si>
   <si>
-    <t>разит</t>
+    <t>поразит</t>
   </si>
   <si>
     <t>אַפּוֹ</t>
   </si>
   <si>
-    <t>гнева своего</t>
+    <t>гнева его</t>
   </si>
   <si>
     <t>מְלָכִים</t>
@@ -307,7 +307,7 @@
     <t>трупами</t>
   </si>
   <si>
-    <t>רֹאש</t>
+    <t>רֹאשׁ</t>
   </si>
   <si>
     <t>главу</t>
@@ -316,37 +316,37 @@
     <t>עַל־אֶרֶץ</t>
   </si>
   <si>
-    <t>на земле</t>
+    <t>(по) над землей</t>
   </si>
   <si>
-    <t>רַבָּה</t>
+    <t>רַבָּה</t>
   </si>
   <si>
-    <t>многих</t>
+    <t>большой</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>מִנַּחַל</t>
+    <t>מִנַּחַל</t>
   </si>
   <si>
-    <t>Из потока</t>
+    <t>из (моря) реки</t>
   </si>
   <si>
-    <t>בַּדֶּרֶךְ</t>
+    <t>בַּדֶּרֶךְ</t>
   </si>
   <si>
-    <t>на пути</t>
+    <t>по дороге</t>
   </si>
   <si>
-    <t>יִשְׁתֶּה</t>
+    <t>יִשְׁתֶּה</t>
   </si>
   <si>
-    <t>будет пить</t>
+    <t>пил</t>
   </si>
   <si>
-    <t>עַל־כֵּן</t>
+    <t>עַל־כֵּן</t>
   </si>
   <si>
     <t>поэтому</t>
@@ -355,10 +355,7 @@
     <t>יָרִים</t>
   </si>
   <si>
-    <t>поднимет</t>
-  </si>
-  <si>
-    <t>רֹאשׁ</t>
+    <t>поднял</t>
   </si>
   <si>
     <t>голову</t>
@@ -368,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -382,6 +379,10 @@
     <font>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -404,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -421,8 +422,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,10 +1422,10 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2"/>
@@ -1441,10 +1454,10 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="2"/>
@@ -1473,10 +1486,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="2"/>
@@ -1761,10 +1774,10 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="9">
         <v>4.0</v>
       </c>
       <c r="C36" s="2"/>
@@ -2081,10 +2094,10 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="9">
         <v>5.0</v>
       </c>
       <c r="C46" s="2"/>
@@ -2177,10 +2190,10 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="2"/>
@@ -2209,10 +2222,10 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="2"/>
@@ -2241,10 +2254,10 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="2"/>
@@ -2305,10 +2318,10 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="9">
         <v>6.0</v>
       </c>
       <c r="C53" s="2"/>
@@ -2465,10 +2478,10 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="2"/>
@@ -2497,10 +2510,10 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C59" s="2"/>
@@ -2529,10 +2542,10 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C60" s="2"/>
@@ -2561,10 +2574,10 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="2"/>
@@ -2593,10 +2606,10 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="9">
         <v>7.0</v>
       </c>
       <c r="C62" s="2"/>
@@ -2625,10 +2638,10 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C63" s="2"/>
@@ -2657,10 +2670,10 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="2"/>
@@ -2689,10 +2702,10 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="2"/>
@@ -2721,10 +2734,10 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="2"/>
@@ -2753,10 +2766,10 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="2"/>
@@ -2785,11 +2798,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
